--- a/output/DiagnosticReport/imagingstudy-diag-1.xlsx
+++ b/output/DiagnosticReport/imagingstudy-diag-1.xlsx
@@ -156,7 +156,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-dh-ims-01:The subject shall at least have a reference or an identifier with at least a system and a value {subject.reference.exists() or subject.identifier.where(system.count() + value.count() &gt;1).exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -464,7 +464,7 @@
     <t>ImagingStudy.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/patient-mhr-1|http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/patient-ident-1)
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/patient-mhr-1|http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/patient-ident-1)
 </t>
   </si>
   <si>

--- a/output/DiagnosticReport/imagingstudy-diag-1.xlsx
+++ b/output/DiagnosticReport/imagingstudy-diag-1.xlsx
@@ -531,7 +531,7 @@
     <t>Date and time the study started.</t>
   </si>
   <si>
-    <t>2011-01-01T18:01:20+10:00</t>
+    <t>2011-01-01T11:01:20+03:00</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
